--- a/Tài liệu/01-Tuyển Dụng/20220520 Báo cáo tuyển dụng-tuần và tháng.xlsx
+++ b/Tài liệu/01-Tuyển Dụng/20220520 Báo cáo tuyển dụng-tuần và tháng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022\02.HRM\Tài liệu\01-Tuyển Dụng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.SourceCode\02.HRM\Tài liệu\01-Tuyển Dụng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFE5B7A-FAA1-4746-A065-A28CA9573312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BDF4CE-5D9F-48B0-BA9C-7DD936320ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KH" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">KH!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -697,7 +699,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,6 +830,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,8 +854,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1203,10 +1208,10 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2323,25 +2328,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="53.45" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="27"/>
       <c r="S1" s="35"/>
       <c r="T1" s="27"/>
@@ -2361,7 +2366,7 @@
       <c r="AH1" s="35"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" s="45" customFormat="1" ht="21" customHeight="1"/>
+    <row r="2" spans="1:35" s="46" customFormat="1" ht="21" customHeight="1"/>
     <row r="3" spans="1:35" ht="30" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
@@ -2372,34 +2377,34 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
+      <c r="I3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
       <c r="AI3" s="5"/>
     </row>
     <row r="4" spans="1:35" s="18" customFormat="1" ht="55.15" customHeight="1">
@@ -2427,60 +2432,60 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="49" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="49" t="s">
+      <c r="N4" s="51"/>
+      <c r="O4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="50"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="51"/>
+      <c r="T4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="50"/>
-      <c r="V4" s="49" t="s">
+      <c r="U4" s="51"/>
+      <c r="V4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="50"/>
-      <c r="X4" s="49" t="s">
+      <c r="W4" s="51"/>
+      <c r="X4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="50"/>
+      <c r="Y4" s="51"/>
       <c r="Z4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="49" t="s">
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="49" t="s">
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="49" t="s">
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="50"/>
+      <c r="AH4" s="51"/>
     </row>
     <row r="5" spans="1:35" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="20"/>
@@ -2491,7 +2496,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="31" t="s">
@@ -2589,7 +2594,7 @@
       <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="44">
         <v>44499</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -2653,7 +2658,7 @@
       <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="44">
         <v>44499</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2717,7 +2722,7 @@
       <c r="F8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="44">
         <v>44530</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2781,7 +2786,7 @@
       <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="44">
         <v>44499</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2843,7 +2848,7 @@
       <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="44">
         <v>44530</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2905,7 +2910,7 @@
       <c r="F11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="44">
         <v>44515</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2969,7 +2974,7 @@
       <c r="F12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="44">
         <v>44499</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -3031,7 +3036,7 @@
       <c r="F13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="44">
         <v>44560</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -3117,7 +3122,7 @@
       <c r="F14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="44">
         <v>44560</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -3197,7 +3202,7 @@
       <c r="F15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="44">
         <v>44530</v>
       </c>
       <c r="H15" s="23" t="s">
@@ -3260,7 +3265,7 @@
       <c r="F16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="44">
         <v>44560</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -3321,7 +3326,7 @@
       <c r="F17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="44">
         <v>44499</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -3384,7 +3389,7 @@
       <c r="F18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="44">
         <v>44494</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3447,7 +3452,7 @@
       <c r="F19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="44">
         <v>44482</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -3512,7 +3517,7 @@
       <c r="F20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="44">
         <v>44473</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3575,7 +3580,7 @@
       <c r="F21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="44">
         <v>44480</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3619,11 +3624,11 @@
       <c r="AH21" s="32"/>
     </row>
     <row r="22" spans="1:34" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="36">
         <f>SUM(D6:D21)</f>
         <v>384</v>
@@ -3803,9 +3808,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3993,19 +4001,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3520FB66-CC00-483D-9B2F-8B0F42807BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F33BFB-A0D4-4DD8-9984-ED2835237049}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4029,9 +4033,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F33BFB-A0D4-4DD8-9984-ED2835237049}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3520FB66-CC00-483D-9B2F-8B0F42807BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>